--- a/data/trans_orig/GENERO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/GENERO-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Género en Barcelona</t>
+          <t>Género en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/GENERO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/GENERO-Estudios-trans_orig.xlsx
@@ -743,7 +743,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2774</t>
+          <t>2738</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2189</t>
+          <t>2205</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4336</t>
+          <t>5064</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>105850</t>
+          <t>106439</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>136420</t>
+          <t>137064</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>48,6%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>62,29%</t>
+          <t>62,58%</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>93793</t>
+          <t>93379</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>81917</t>
+          <t>81622</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>112375</t>
+          <t>111775</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>51,31%</t>
+          <t>51,04%</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>937</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>724</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4834</t>
+          <t>5015</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>855</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>4905</t>
+          <t>5030</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>349280</t>
+          <t>348966</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>353658</t>
+          <t>353580</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>98,5%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>99,72%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>334286</t>
+          <t>333714</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>370140</t>
+          <t>370060</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>46,88%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>51,99%</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>356248</t>
+          <t>356325</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>99,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2266</t>
+          <t>2678</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>339269</t>
+          <t>339779</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>374902</t>
+          <t>375568</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>47,73%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>52,67%</t>
+          <t>52,76%</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2404</t>
+          <t>2634</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>2942</t>
+          <t>2935</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>279560</t>
+          <t>279998</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>265894</t>
+          <t>267484</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>296748</t>
+          <t>298575</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>52,68%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>58,44%</t>
+          <t>58,8%</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>222206</t>
+          <t>221976</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>98,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3370</t>
+          <t>3002</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1946,12 +1946,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>210719</t>
+          <t>208711</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>241693</t>
+          <t>239266</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>41,11%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>47,12%</t>
         </is>
       </c>
     </row>
@@ -2106,12 +2106,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>186</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3584</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>924</t>
+          <t>885</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5131</t>
+          <t>5014</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>6609</t>
+          <t>6463</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4559</t>
+          <t>5033</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>751607</t>
+          <t>751397</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>756686</t>
+          <t>756543</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>99,78%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>726699</t>
+          <t>727077</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>783666</t>
+          <t>784244</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>50,54%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>54,51%</t>
         </is>
       </c>
     </row>
@@ -2332,12 +2332,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>675139</t>
+          <t>674511</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>679942</t>
+          <t>679944</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>3788</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>651491</t>
+          <t>651561</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>709146</t>
+          <t>709227</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>49,3%</t>
         </is>
       </c>
     </row>
